--- a/single_use/training_plan.xlsx
+++ b/single_use/training_plan.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
-  <si>
-    <t>changes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
   <si>
     <t>env</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add res block?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>add LSTM block?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,11 +66,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
+    <t>conv_model, 5*2^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val prec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link-to-training curves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust config?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,91 +110,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*2^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tf2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conv_model, 5*2^5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv_model, 5*2^5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv_model, 5*2^5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>val prec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>val loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>val recall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link-to-training curves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust config?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tf2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complex conv_model</t>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add GRU block?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,23 +190,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>complex conv_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,6 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,8 +324,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,285 +614,949 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="K2">
+        <v>0.95269999999999999</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.24179999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0.67479999999999996</v>
+      </c>
+      <c r="K3">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="M3">
+        <v>0.5081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="M4">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.2893</v>
+      </c>
+      <c r="M5">
+        <v>0.43259999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.9143</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.1573</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.9234</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.7742</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.7137</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.6341</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5">
+      <c r="J23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/single_use/training_plan.xlsx
+++ b/single_use/training_plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
   <si>
     <t>env</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,35 +246,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tf2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,12 +294,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -324,15 +328,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,949 +639,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="8" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="14" max="14" width="20.375" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="44.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="20.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0.753</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>0.95269999999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>0.14410000000000001</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>0.24179999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0.67479999999999996</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>0.96740000000000004</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0.40749999999999997</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>0.5081</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.99929999999999997</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>0.85729999999999995</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>0.92900000000000005</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0.2893</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>0.43259999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.49390000000000001</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <v>0.95130000000000003</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2">
         <v>0.62329999999999997</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>0.96030000000000004</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>0.16600000000000001</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.55530000000000002</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.9143</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.1573</v>
-      </c>
-      <c r="N15" s="1"/>
+      <c r="J15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0.74919999999999998</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>0.9234</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>0.29549999999999998</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>0.42380000000000001</v>
       </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="E17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="1">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.95679999999999998</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.7742</v>
-      </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="J17" s="5">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>0.81930000000000003</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="5">
         <v>0.94730000000000003</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="5">
         <v>0.56840000000000002</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="5">
         <v>0.67120000000000002</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="1">
-        <v>0.7137</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="J19" s="2">
+        <v>0.7208</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="1">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.6341</v>
-      </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="J20" s="5">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.6714</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="2">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.7823</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.85009999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.79359999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.9849</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.81969999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="J26" s="8">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.85419999999999996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/single_use/training_plan.xlsx
+++ b/single_use/training_plan.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
